--- a/meses_procedimentos.xlsx
+++ b/meses_procedimentos.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desenvolvimento\projetos\EstudoBiopsiaAnatomo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1908,7 +1903,7 @@
     <t>['202306', '202306']</t>
   </si>
   <si>
-    <t>['202303', '202303', '202311', '202311']</t>
+    <t>['202311', '202311', '202303', '202303']</t>
   </si>
   <si>
     <t>['202301']</t>
@@ -1926,10 +1921,10 @@
     <t>['202306', '202306', '202305', '202305']</t>
   </si>
   <si>
-    <t>['202307', '202307', '202308', '202308']</t>
-  </si>
-  <si>
-    <t>['202306', '202306', '202307', '202307']</t>
+    <t>['202308', '202308', '202307', '202307']</t>
+  </si>
+  <si>
+    <t>['202307', '202307', '202306', '202306']</t>
   </si>
   <si>
     <t>['202303', '202303']</t>
@@ -1941,7 +1936,7 @@
     <t>['202306', '202306', '202301', '202301']</t>
   </si>
   <si>
-    <t>['202304', '202304', '202302', '202302']</t>
+    <t>['202302', '202302', '202304', '202304']</t>
   </si>
   <si>
     <t>['202304', '202304', '202304', '202304']</t>
@@ -1953,22 +1948,16 @@
     <t>['202303', '202304']</t>
   </si>
   <si>
-    <t>['202302', '202302', '202304', '202304']</t>
-  </si>
-  <si>
     <t>['202305', '202305', '202305']</t>
   </si>
   <si>
-    <t>['202305', '202304']</t>
-  </si>
-  <si>
-    <t>['202310', '202310', '202302', '202302']</t>
-  </si>
-  <si>
-    <t>['202303', '202301']</t>
-  </si>
-  <si>
-    <t>['202304', '202303']</t>
+    <t>['202304', '202305']</t>
+  </si>
+  <si>
+    <t>['202302', '202302', '202310', '202310']</t>
+  </si>
+  <si>
+    <t>['202301', '202303']</t>
   </si>
   <si>
     <t>['202302', '202302']</t>
@@ -1977,7 +1966,7 @@
     <t>['202304', '202304', '202305', '202305']</t>
   </si>
   <si>
-    <t>['202305', '202305', '202302', '202302']</t>
+    <t>['202302', '202302', '202305', '202305']</t>
   </si>
   <si>
     <t>['202307', '202307']</t>
@@ -1989,6 +1978,9 @@
     <t>['202302', '202302', '202302', '202302']</t>
   </si>
   <si>
+    <t>['202301', '202301', '202306', '202306']</t>
+  </si>
+  <si>
     <t>['202305', '202303']</t>
   </si>
   <si>
@@ -2004,10 +1996,10 @@
     <t>['202303', '202308']</t>
   </si>
   <si>
-    <t>['202305', '202306', '202305', '202306']</t>
-  </si>
-  <si>
-    <t>['202308', '202307', '202308', '202307']</t>
+    <t>['202306', '202305', '202306', '202305']</t>
+  </si>
+  <si>
+    <t>['202307', '202308', '202307', '202308']</t>
   </si>
   <si>
     <t>['202306', '202307', '202306', '202307']</t>
@@ -2016,40 +2008,43 @@
     <t>['202303', '202307']</t>
   </si>
   <si>
-    <t>['202309', '202304']</t>
+    <t>['202304', '202309']</t>
+  </si>
+  <si>
+    <t>['202301', '202306', '202301', '202306']</t>
   </si>
   <si>
     <t>['202306', '202301', '202306', '202301']</t>
   </si>
   <si>
-    <t>['202304', '202302', '202304', '202302']</t>
-  </si>
-  <si>
-    <t>['202310', '202306']</t>
-  </si>
-  <si>
-    <t>['202309', '202310', '202309', '202310']</t>
+    <t>['202302', '202304', '202302', '202304']</t>
+  </si>
+  <si>
+    <t>['202306', '202310']</t>
+  </si>
+  <si>
+    <t>['202310', '202309', '202310', '202309']</t>
   </si>
   <si>
     <t>['202304', '202304']</t>
   </si>
   <si>
-    <t>['202305', '202302', '202302']</t>
+    <t>['202302', '202302', '202305']</t>
   </si>
   <si>
     <t>['202305', '202305']</t>
   </si>
   <si>
-    <t>['202310', '202301']</t>
-  </si>
-  <si>
-    <t>['202310', '202302', '202310', '202302']</t>
+    <t>['202301', '202310']</t>
+  </si>
+  <si>
+    <t>['202302', '202310', '202302', '202310']</t>
   </si>
   <si>
     <t>['202306', '202302']</t>
   </si>
   <si>
-    <t>['202305', '202304', '202305', '202304']</t>
+    <t>['202304', '202305', '202304', '202305']</t>
   </si>
   <si>
     <t>['202302', '202305', '202302', '202305']</t>
@@ -2058,7 +2053,7 @@
     <t>['202306', '202307']</t>
   </si>
   <si>
-    <t>['202312', '202304']</t>
+    <t>['202304', '202312']</t>
   </si>
   <si>
     <t>['202310', '202303']</t>
@@ -2067,8 +2062,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2131,19 +2126,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2185,7 +2172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2217,10 +2204,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2252,7 +2238,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2428,20 +2413,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C615"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2452,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2463,7 +2442,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2474,7 +2453,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2485,7 +2464,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2496,7 +2475,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2507,7 +2486,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2518,7 +2497,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2529,7 +2508,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2540,7 +2519,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2551,7 +2530,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +2541,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2573,7 +2552,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2584,7 +2563,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2595,7 +2574,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2606,7 +2585,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2617,7 +2596,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2628,7 +2607,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2639,7 +2618,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2650,7 +2629,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2661,7 +2640,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2672,7 +2651,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2683,7 +2662,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2694,7 +2673,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2705,7 +2684,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -2716,7 +2695,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2727,7 +2706,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -2738,7 +2717,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -2749,7 +2728,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -2760,7 +2739,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2771,7 +2750,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2782,7 +2761,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -2793,7 +2772,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2804,7 +2783,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2815,7 +2794,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2826,7 +2805,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -2837,7 +2816,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2848,7 +2827,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,7 +2838,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2870,7 +2849,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -2881,7 +2860,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2892,7 +2871,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2903,7 +2882,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -2914,7 +2893,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -2925,7 +2904,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -2936,7 +2915,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2947,7 +2926,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -2958,7 +2937,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2969,7 +2948,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -2980,7 +2959,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -2991,7 +2970,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -3002,7 +2981,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -3013,7 +2992,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -3024,7 +3003,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -3035,7 +3014,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -3046,7 +3025,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -3057,7 +3036,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -3068,7 +3047,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,7 +3058,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -3090,7 +3069,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -3101,7 +3080,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -3112,7 +3091,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -3123,7 +3102,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -3131,10 +3110,10 @@
         <v>629</v>
       </c>
       <c r="C63" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -3145,7 +3124,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -3156,7 +3135,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -3167,7 +3146,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -3178,7 +3157,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -3189,7 +3168,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -3200,7 +3179,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -3211,7 +3190,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -3222,7 +3201,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -3233,7 +3212,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -3244,7 +3223,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -3255,7 +3234,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -3266,7 +3245,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -3277,7 +3256,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -3288,7 +3267,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -3299,7 +3278,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -3310,7 +3289,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -3321,7 +3300,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -3332,7 +3311,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -3343,7 +3322,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -3354,7 +3333,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -3365,7 +3344,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -3376,7 +3355,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -3387,7 +3366,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -3398,7 +3377,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -3409,7 +3388,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -3420,7 +3399,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -3431,7 +3410,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -3442,7 +3421,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -3453,7 +3432,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -3464,7 +3443,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -3472,10 +3451,10 @@
         <v>631</v>
       </c>
       <c r="C94" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -3486,7 +3465,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -3497,7 +3476,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -3508,7 +3487,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -3519,7 +3498,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -3530,7 +3509,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -3541,7 +3520,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -3552,7 +3531,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -3563,7 +3542,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -3574,7 +3553,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -3585,7 +3564,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -3596,7 +3575,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -3607,7 +3586,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -3615,10 +3594,10 @@
         <v>632</v>
       </c>
       <c r="C107" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -3629,7 +3608,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -3640,7 +3619,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -3651,7 +3630,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -3662,7 +3641,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -3673,7 +3652,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3684,7 +3663,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -3695,7 +3674,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -3706,7 +3685,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -3717,7 +3696,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -3728,7 +3707,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -3739,7 +3718,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -3750,7 +3729,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -3761,7 +3740,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -3772,7 +3751,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -3783,7 +3762,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -3794,7 +3773,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -3805,7 +3784,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -3816,7 +3795,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -3827,7 +3806,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -3838,7 +3817,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -3849,7 +3828,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -3860,7 +3839,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -3871,7 +3850,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -3879,10 +3858,10 @@
         <v>633</v>
       </c>
       <c r="C131" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -3893,7 +3872,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -3904,7 +3883,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -3915,7 +3894,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -3923,10 +3902,10 @@
         <v>634</v>
       </c>
       <c r="C135" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -3937,7 +3916,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -3948,7 +3927,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -3959,7 +3938,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -3970,7 +3949,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -3981,7 +3960,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -3992,7 +3971,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -4003,7 +3982,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -4014,7 +3993,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -4025,7 +4004,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -4036,7 +4015,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -4047,7 +4026,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -4058,7 +4037,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -4069,7 +4048,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -4080,7 +4059,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -4091,7 +4070,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -4102,7 +4081,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -4113,7 +4092,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -4124,7 +4103,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -4135,7 +4114,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -4146,7 +4125,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -4157,7 +4136,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -4168,7 +4147,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -4179,7 +4158,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -4190,7 +4169,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -4201,7 +4180,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -4212,7 +4191,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -4223,7 +4202,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -4234,7 +4213,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -4245,7 +4224,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -4256,7 +4235,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -4267,7 +4246,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -4278,7 +4257,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -4289,7 +4268,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -4297,10 +4276,10 @@
         <v>635</v>
       </c>
       <c r="C169" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -4311,7 +4290,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -4322,7 +4301,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -4333,7 +4312,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -4344,7 +4323,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -4355,7 +4334,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -4366,7 +4345,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -4377,7 +4356,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -4388,7 +4367,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -4399,7 +4378,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -4410,7 +4389,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -4421,7 +4400,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -4429,10 +4408,10 @@
         <v>636</v>
       </c>
       <c r="C181" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -4443,7 +4422,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -4454,7 +4433,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -4465,7 +4444,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -4473,10 +4452,10 @@
         <v>637</v>
       </c>
       <c r="C185" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -4487,7 +4466,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -4498,7 +4477,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -4509,7 +4488,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -4520,7 +4499,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -4531,7 +4510,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -4542,7 +4521,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -4553,7 +4532,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -4564,7 +4543,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -4575,7 +4554,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -4586,7 +4565,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -4597,7 +4576,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -4608,7 +4587,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -4619,7 +4598,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -4630,7 +4609,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -4641,7 +4620,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -4652,7 +4631,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -4663,7 +4642,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -4674,7 +4653,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -4685,7 +4664,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -4696,7 +4675,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -4707,7 +4686,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -4718,7 +4697,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -4729,7 +4708,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -4740,7 +4719,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -4748,10 +4727,10 @@
         <v>637</v>
       </c>
       <c r="C210" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -4762,7 +4741,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -4773,7 +4752,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -4784,7 +4763,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -4795,7 +4774,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -4806,7 +4785,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -4814,10 +4793,10 @@
         <v>638</v>
       </c>
       <c r="C216" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -4828,7 +4807,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -4839,7 +4818,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -4850,7 +4829,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -4861,7 +4840,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -4872,7 +4851,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -4883,7 +4862,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -4891,10 +4870,10 @@
         <v>639</v>
       </c>
       <c r="C223" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -4905,7 +4884,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -4916,7 +4895,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -4927,7 +4906,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -4938,7 +4917,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -4949,7 +4928,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -4960,7 +4939,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -4971,7 +4950,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -4982,7 +4961,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -4993,7 +4972,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -5004,7 +4983,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -5015,7 +4994,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -5026,7 +5005,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -5037,7 +5016,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -5048,7 +5027,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
@@ -5059,7 +5038,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
@@ -5070,7 +5049,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
@@ -5081,7 +5060,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -5092,7 +5071,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
@@ -5103,7 +5082,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
@@ -5114,7 +5093,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
@@ -5125,7 +5104,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
@@ -5136,7 +5115,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
@@ -5147,7 +5126,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -5158,7 +5137,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
@@ -5169,7 +5148,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
@@ -5180,7 +5159,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
@@ -5191,7 +5170,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -5202,7 +5181,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
@@ -5213,7 +5192,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
@@ -5224,7 +5203,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -5235,7 +5214,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
@@ -5246,7 +5225,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
@@ -5257,7 +5236,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
@@ -5268,7 +5247,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
@@ -5279,18 +5258,18 @@
         <v>622</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C259" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -5301,7 +5280,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
@@ -5312,7 +5291,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
@@ -5323,7 +5302,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
@@ -5334,7 +5313,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
@@ -5345,7 +5324,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
@@ -5356,7 +5335,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -5367,7 +5346,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -5378,7 +5357,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -5389,7 +5368,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
@@ -5400,7 +5379,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
@@ -5411,7 +5390,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
@@ -5422,7 +5401,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -5433,7 +5412,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -5444,7 +5423,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
@@ -5455,7 +5434,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
@@ -5466,7 +5445,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -5477,7 +5456,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -5488,7 +5467,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
@@ -5499,7 +5478,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
         <v>280</v>
       </c>
@@ -5510,7 +5489,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
         <v>281</v>
       </c>
@@ -5521,7 +5500,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
         <v>282</v>
       </c>
@@ -5532,7 +5511,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
         <v>283</v>
       </c>
@@ -5543,7 +5522,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
         <v>284</v>
       </c>
@@ -5554,7 +5533,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
         <v>285</v>
       </c>
@@ -5565,7 +5544,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
         <v>286</v>
       </c>
@@ -5576,7 +5555,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
         <v>287</v>
       </c>
@@ -5587,7 +5566,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
         <v>288</v>
       </c>
@@ -5598,7 +5577,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
         <v>289</v>
       </c>
@@ -5609,7 +5588,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
         <v>290</v>
       </c>
@@ -5620,7 +5599,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
         <v>291</v>
       </c>
@@ -5631,7 +5610,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
         <v>292</v>
       </c>
@@ -5642,7 +5621,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
         <v>293</v>
       </c>
@@ -5653,7 +5632,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
         <v>294</v>
       </c>
@@ -5664,7 +5643,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
         <v>295</v>
       </c>
@@ -5675,7 +5654,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
         <v>296</v>
       </c>
@@ -5686,7 +5665,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
         <v>297</v>
       </c>
@@ -5697,7 +5676,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
         <v>298</v>
       </c>
@@ -5708,7 +5687,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
         <v>299</v>
       </c>
@@ -5719,7 +5698,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
         <v>300</v>
       </c>
@@ -5730,7 +5709,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
         <v>301</v>
       </c>
@@ -5741,7 +5720,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
         <v>302</v>
       </c>
@@ -5752,7 +5731,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
         <v>303</v>
       </c>
@@ -5763,7 +5742,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
         <v>304</v>
       </c>
@@ -5774,7 +5753,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
         <v>305</v>
       </c>
@@ -5785,7 +5764,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
         <v>306</v>
       </c>
@@ -5796,7 +5775,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
         <v>307</v>
       </c>
@@ -5807,7 +5786,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
         <v>308</v>
       </c>
@@ -5818,7 +5797,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
         <v>309</v>
       </c>
@@ -5829,7 +5808,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
         <v>310</v>
       </c>
@@ -5840,29 +5819,29 @@
         <v>624</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B310" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C310" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B311" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C311" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
         <v>313</v>
       </c>
@@ -5873,7 +5852,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
         <v>314</v>
       </c>
@@ -5884,7 +5863,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
         <v>315</v>
       </c>
@@ -5895,7 +5874,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
         <v>316</v>
       </c>
@@ -5906,7 +5885,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
         <v>317</v>
       </c>
@@ -5917,7 +5896,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
         <v>318</v>
       </c>
@@ -5928,18 +5907,18 @@
         <v>621</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B318" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C318" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
         <v>320</v>
       </c>
@@ -5950,7 +5929,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
         <v>321</v>
       </c>
@@ -5961,7 +5940,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
         <v>322</v>
       </c>
@@ -5972,7 +5951,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
         <v>323</v>
       </c>
@@ -5983,7 +5962,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
         <v>324</v>
       </c>
@@ -5994,7 +5973,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
         <v>325</v>
       </c>
@@ -6005,7 +5984,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
         <v>326</v>
       </c>
@@ -6016,7 +5995,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
         <v>327</v>
       </c>
@@ -6027,7 +6006,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
         <v>328</v>
       </c>
@@ -6038,7 +6017,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
         <v>329</v>
       </c>
@@ -6049,7 +6028,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
         <v>330</v>
       </c>
@@ -6060,7 +6039,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
         <v>331</v>
       </c>
@@ -6068,10 +6047,10 @@
         <v>636</v>
       </c>
       <c r="C330" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
         <v>332</v>
       </c>
@@ -6082,7 +6061,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
         <v>333</v>
       </c>
@@ -6093,7 +6072,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
         <v>334</v>
       </c>
@@ -6104,7 +6083,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
         <v>335</v>
       </c>
@@ -6115,7 +6094,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>336</v>
       </c>
@@ -6126,7 +6105,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
         <v>337</v>
       </c>
@@ -6137,7 +6116,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
         <v>338</v>
       </c>
@@ -6148,7 +6127,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
         <v>339</v>
       </c>
@@ -6159,7 +6138,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
         <v>340</v>
       </c>
@@ -6170,7 +6149,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
         <v>341</v>
       </c>
@@ -6181,18 +6160,18 @@
         <v>624</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B341" t="s">
+        <v>647</v>
+      </c>
+      <c r="C341" t="s">
         <v>648</v>
       </c>
-      <c r="C341" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
         <v>343</v>
       </c>
@@ -6203,7 +6182,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
         <v>344</v>
       </c>
@@ -6214,7 +6193,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
         <v>345</v>
       </c>
@@ -6225,7 +6204,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
         <v>346</v>
       </c>
@@ -6236,7 +6215,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
         <v>347</v>
       </c>
@@ -6247,7 +6226,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
         <v>348</v>
       </c>
@@ -6258,18 +6237,18 @@
         <v>617</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C348" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
         <v>350</v>
       </c>
@@ -6280,7 +6259,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
         <v>351</v>
       </c>
@@ -6291,7 +6270,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
         <v>352</v>
       </c>
@@ -6302,7 +6281,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>353</v>
       </c>
@@ -6313,7 +6292,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
         <v>354</v>
       </c>
@@ -6324,7 +6303,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
         <v>355</v>
       </c>
@@ -6335,7 +6314,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>356</v>
       </c>
@@ -6346,7 +6325,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
         <v>357</v>
       </c>
@@ -6357,7 +6336,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>358</v>
       </c>
@@ -6368,7 +6347,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>359</v>
       </c>
@@ -6379,7 +6358,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
         <v>360</v>
       </c>
@@ -6390,7 +6369,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
         <v>361</v>
       </c>
@@ -6401,7 +6380,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
         <v>362</v>
       </c>
@@ -6412,7 +6391,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
         <v>363</v>
       </c>
@@ -6423,7 +6402,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
         <v>364</v>
       </c>
@@ -6434,7 +6413,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>365</v>
       </c>
@@ -6445,7 +6424,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>366</v>
       </c>
@@ -6456,7 +6435,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>367</v>
       </c>
@@ -6467,7 +6446,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
         <v>368</v>
       </c>
@@ -6478,7 +6457,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>369</v>
       </c>
@@ -6489,7 +6468,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
         <v>370</v>
       </c>
@@ -6500,7 +6479,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>371</v>
       </c>
@@ -6511,7 +6490,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>372</v>
       </c>
@@ -6522,7 +6501,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>373</v>
       </c>
@@ -6533,7 +6512,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
         <v>374</v>
       </c>
@@ -6544,7 +6523,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
         <v>375</v>
       </c>
@@ -6555,7 +6534,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>376</v>
       </c>
@@ -6566,7 +6545,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
         <v>377</v>
       </c>
@@ -6577,7 +6556,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
         <v>378</v>
       </c>
@@ -6588,7 +6567,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
         <v>379</v>
       </c>
@@ -6599,7 +6578,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
         <v>380</v>
       </c>
@@ -6610,7 +6589,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
         <v>381</v>
       </c>
@@ -6621,7 +6600,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
         <v>382</v>
       </c>
@@ -6632,7 +6611,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
         <v>383</v>
       </c>
@@ -6643,7 +6622,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
         <v>384</v>
       </c>
@@ -6654,7 +6633,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
         <v>385</v>
       </c>
@@ -6665,7 +6644,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
         <v>386</v>
       </c>
@@ -6676,7 +6655,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
         <v>387</v>
       </c>
@@ -6687,7 +6666,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
         <v>388</v>
       </c>
@@ -6698,7 +6677,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
         <v>389</v>
       </c>
@@ -6709,7 +6688,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
         <v>390</v>
       </c>
@@ -6720,7 +6699,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
         <v>391</v>
       </c>
@@ -6731,7 +6710,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
         <v>392</v>
       </c>
@@ -6742,7 +6721,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
         <v>393</v>
       </c>
@@ -6753,7 +6732,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
         <v>394</v>
       </c>
@@ -6764,7 +6743,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
         <v>395</v>
       </c>
@@ -6775,7 +6754,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
         <v>396</v>
       </c>
@@ -6786,7 +6765,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
         <v>397</v>
       </c>
@@ -6797,7 +6776,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
         <v>398</v>
       </c>
@@ -6808,7 +6787,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
         <v>399</v>
       </c>
@@ -6819,7 +6798,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
         <v>400</v>
       </c>
@@ -6830,7 +6809,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
         <v>401</v>
       </c>
@@ -6841,7 +6820,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
         <v>402</v>
       </c>
@@ -6852,7 +6831,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
         <v>403</v>
       </c>
@@ -6863,7 +6842,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
         <v>404</v>
       </c>
@@ -6874,7 +6853,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
         <v>405</v>
       </c>
@@ -6885,7 +6864,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
         <v>406</v>
       </c>
@@ -6896,7 +6875,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
         <v>407</v>
       </c>
@@ -6907,7 +6886,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
         <v>408</v>
       </c>
@@ -6918,7 +6897,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
         <v>409</v>
       </c>
@@ -6929,7 +6908,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
         <v>410</v>
       </c>
@@ -6940,7 +6919,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
         <v>411</v>
       </c>
@@ -6951,7 +6930,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
         <v>412</v>
       </c>
@@ -6962,7 +6941,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
         <v>413</v>
       </c>
@@ -6973,18 +6952,18 @@
         <v>627</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B413" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C413" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
         <v>415</v>
       </c>
@@ -6995,7 +6974,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
         <v>416</v>
       </c>
@@ -7006,7 +6985,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
         <v>417</v>
       </c>
@@ -7017,7 +6996,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
         <v>418</v>
       </c>
@@ -7028,7 +7007,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
         <v>419</v>
       </c>
@@ -7039,7 +7018,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
         <v>420</v>
       </c>
@@ -7050,7 +7029,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
         <v>421</v>
       </c>
@@ -7061,7 +7040,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
         <v>422</v>
       </c>
@@ -7072,7 +7051,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
         <v>423</v>
       </c>
@@ -7083,7 +7062,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
         <v>424</v>
       </c>
@@ -7094,7 +7073,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
         <v>425</v>
       </c>
@@ -7105,7 +7084,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
         <v>426</v>
       </c>
@@ -7116,7 +7095,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
         <v>427</v>
       </c>
@@ -7127,7 +7106,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
         <v>428</v>
       </c>
@@ -7138,7 +7117,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
         <v>429</v>
       </c>
@@ -7149,7 +7128,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
         <v>430</v>
       </c>
@@ -7160,7 +7139,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
         <v>431</v>
       </c>
@@ -7171,7 +7150,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
         <v>432</v>
       </c>
@@ -7182,7 +7161,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
         <v>433</v>
       </c>
@@ -7193,7 +7172,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
         <v>434</v>
       </c>
@@ -7204,7 +7183,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
         <v>435</v>
       </c>
@@ -7215,7 +7194,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
         <v>436</v>
       </c>
@@ -7226,7 +7205,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
         <v>437</v>
       </c>
@@ -7237,7 +7216,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
         <v>438</v>
       </c>
@@ -7248,7 +7227,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
         <v>439</v>
       </c>
@@ -7259,7 +7238,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
         <v>440</v>
       </c>
@@ -7270,7 +7249,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
         <v>441</v>
       </c>
@@ -7281,7 +7260,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
         <v>442</v>
       </c>
@@ -7292,7 +7271,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
         <v>443</v>
       </c>
@@ -7303,7 +7282,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
         <v>444</v>
       </c>
@@ -7314,7 +7293,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
         <v>445</v>
       </c>
@@ -7325,7 +7304,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
         <v>446</v>
       </c>
@@ -7336,7 +7315,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
         <v>447</v>
       </c>
@@ -7347,7 +7326,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
         <v>448</v>
       </c>
@@ -7358,7 +7337,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
         <v>449</v>
       </c>
@@ -7369,7 +7348,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
         <v>450</v>
       </c>
@@ -7380,7 +7359,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
         <v>451</v>
       </c>
@@ -7391,7 +7370,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
         <v>452</v>
       </c>
@@ -7402,7 +7381,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
         <v>453</v>
       </c>
@@ -7413,7 +7392,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
         <v>454</v>
       </c>
@@ -7424,7 +7403,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
         <v>455</v>
       </c>
@@ -7435,7 +7414,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
         <v>456</v>
       </c>
@@ -7446,7 +7425,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
         <v>457</v>
       </c>
@@ -7457,7 +7436,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
         <v>458</v>
       </c>
@@ -7468,7 +7447,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
         <v>459</v>
       </c>
@@ -7479,7 +7458,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
         <v>460</v>
       </c>
@@ -7490,7 +7469,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
         <v>461</v>
       </c>
@@ -7501,7 +7480,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
         <v>462</v>
       </c>
@@ -7512,7 +7491,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
         <v>463</v>
       </c>
@@ -7523,7 +7502,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
         <v>464</v>
       </c>
@@ -7534,7 +7513,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
         <v>465</v>
       </c>
@@ -7545,7 +7524,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
         <v>466</v>
       </c>
@@ -7556,7 +7535,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
         <v>467</v>
       </c>
@@ -7567,7 +7546,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
         <v>468</v>
       </c>
@@ -7578,7 +7557,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
         <v>469</v>
       </c>
@@ -7589,7 +7568,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
         <v>470</v>
       </c>
@@ -7600,7 +7579,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
         <v>471</v>
       </c>
@@ -7611,7 +7590,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
         <v>472</v>
       </c>
@@ -7622,7 +7601,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
         <v>473</v>
       </c>
@@ -7633,18 +7612,18 @@
         <v>623</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B473" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C473" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
         <v>475</v>
       </c>
@@ -7655,7 +7634,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
         <v>476</v>
       </c>
@@ -7666,7 +7645,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
         <v>477</v>
       </c>
@@ -7677,7 +7656,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
         <v>478</v>
       </c>
@@ -7688,7 +7667,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
         <v>479</v>
       </c>
@@ -7699,7 +7678,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
         <v>480</v>
       </c>
@@ -7710,7 +7689,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
         <v>481</v>
       </c>
@@ -7721,7 +7700,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
         <v>482</v>
       </c>
@@ -7732,7 +7711,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
         <v>483</v>
       </c>
@@ -7743,7 +7722,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
         <v>484</v>
       </c>
@@ -7754,7 +7733,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
         <v>485</v>
       </c>
@@ -7765,7 +7744,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
         <v>486</v>
       </c>
@@ -7776,7 +7755,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
         <v>487</v>
       </c>
@@ -7787,7 +7766,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
         <v>488</v>
       </c>
@@ -7798,7 +7777,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
         <v>489</v>
       </c>
@@ -7809,7 +7788,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
         <v>490</v>
       </c>
@@ -7820,7 +7799,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
         <v>491</v>
       </c>
@@ -7831,7 +7810,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
         <v>492</v>
       </c>
@@ -7842,7 +7821,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
         <v>493</v>
       </c>
@@ -7853,7 +7832,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
         <v>494</v>
       </c>
@@ -7864,7 +7843,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
         <v>495</v>
       </c>
@@ -7875,7 +7854,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
         <v>496</v>
       </c>
@@ -7886,7 +7865,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
         <v>497</v>
       </c>
@@ -7897,7 +7876,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3">
       <c r="A497" s="1" t="s">
         <v>498</v>
       </c>
@@ -7908,7 +7887,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
         <v>499</v>
       </c>
@@ -7919,7 +7898,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
         <v>500</v>
       </c>
@@ -7930,7 +7909,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
         <v>501</v>
       </c>
@@ -7941,7 +7920,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
         <v>502</v>
       </c>
@@ -7952,7 +7931,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
         <v>503</v>
       </c>
@@ -7963,18 +7942,18 @@
         <v>627</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
         <v>504</v>
       </c>
       <c r="B503" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C503" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
         <v>505</v>
       </c>
@@ -7985,7 +7964,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
         <v>506</v>
       </c>
@@ -7996,7 +7975,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
         <v>507</v>
       </c>
@@ -8007,7 +7986,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
         <v>508</v>
       </c>
@@ -8018,7 +7997,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
         <v>509</v>
       </c>
@@ -8029,7 +8008,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
         <v>510</v>
       </c>
@@ -8040,7 +8019,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
         <v>511</v>
       </c>
@@ -8051,7 +8030,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
         <v>512</v>
       </c>
@@ -8062,7 +8041,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
         <v>513</v>
       </c>
@@ -8073,7 +8052,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
         <v>514</v>
       </c>
@@ -8084,7 +8063,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
         <v>515</v>
       </c>
@@ -8095,7 +8074,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
         <v>516</v>
       </c>
@@ -8106,7 +8085,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
         <v>517</v>
       </c>
@@ -8117,7 +8096,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
         <v>518</v>
       </c>
@@ -8128,7 +8107,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
         <v>519</v>
       </c>
@@ -8139,7 +8118,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
         <v>520</v>
       </c>
@@ -8150,7 +8129,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
         <v>521</v>
       </c>
@@ -8161,7 +8140,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
         <v>522</v>
       </c>
@@ -8172,7 +8151,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
         <v>523</v>
       </c>
@@ -8183,7 +8162,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
         <v>524</v>
       </c>
@@ -8194,7 +8173,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
         <v>525</v>
       </c>
@@ -8205,7 +8184,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
         <v>526</v>
       </c>
@@ -8216,7 +8195,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
         <v>527</v>
       </c>
@@ -8227,7 +8206,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
         <v>528</v>
       </c>
@@ -8238,7 +8217,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
         <v>529</v>
       </c>
@@ -8249,7 +8228,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
         <v>530</v>
       </c>
@@ -8260,7 +8239,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
         <v>531</v>
       </c>
@@ -8271,7 +8250,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
         <v>532</v>
       </c>
@@ -8282,7 +8261,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
         <v>533</v>
       </c>
@@ -8293,7 +8272,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
         <v>534</v>
       </c>
@@ -8304,7 +8283,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
         <v>535</v>
       </c>
@@ -8315,7 +8294,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
         <v>536</v>
       </c>
@@ -8326,7 +8305,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
         <v>537</v>
       </c>
@@ -8337,7 +8316,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3">
       <c r="A537" s="1" t="s">
         <v>538</v>
       </c>
@@ -8348,7 +8327,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
         <v>539</v>
       </c>
@@ -8359,7 +8338,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
         <v>540</v>
       </c>
@@ -8370,7 +8349,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3">
       <c r="A540" s="1" t="s">
         <v>541</v>
       </c>
@@ -8381,7 +8360,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3">
       <c r="A541" s="1" t="s">
         <v>542</v>
       </c>
@@ -8392,7 +8371,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3">
       <c r="A542" s="1" t="s">
         <v>543</v>
       </c>
@@ -8403,18 +8382,18 @@
         <v>626</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3">
       <c r="A543" s="1" t="s">
         <v>544</v>
       </c>
       <c r="B543" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C543" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3">
       <c r="A544" s="1" t="s">
         <v>545</v>
       </c>
@@ -8425,7 +8404,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3">
       <c r="A545" s="1" t="s">
         <v>546</v>
       </c>
@@ -8436,7 +8415,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3">
       <c r="A546" s="1" t="s">
         <v>547</v>
       </c>
@@ -8447,7 +8426,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3">
       <c r="A547" s="1" t="s">
         <v>548</v>
       </c>
@@ -8458,7 +8437,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3">
       <c r="A548" s="1" t="s">
         <v>549</v>
       </c>
@@ -8469,7 +8448,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3">
       <c r="A549" s="1" t="s">
         <v>550</v>
       </c>
@@ -8480,7 +8459,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3">
       <c r="A550" s="1" t="s">
         <v>551</v>
       </c>
@@ -8491,7 +8470,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3">
       <c r="A551" s="1" t="s">
         <v>552</v>
       </c>
@@ -8502,7 +8481,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3">
       <c r="A552" s="1" t="s">
         <v>553</v>
       </c>
@@ -8513,7 +8492,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3">
       <c r="A553" s="1" t="s">
         <v>554</v>
       </c>
@@ -8524,7 +8503,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3">
       <c r="A554" s="1" t="s">
         <v>555</v>
       </c>
@@ -8535,7 +8514,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3">
       <c r="A555" s="1" t="s">
         <v>556</v>
       </c>
@@ -8546,7 +8525,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3">
       <c r="A556" s="1" t="s">
         <v>557</v>
       </c>
@@ -8557,7 +8536,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3">
       <c r="A557" s="1" t="s">
         <v>558</v>
       </c>
@@ -8568,7 +8547,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3">
       <c r="A558" s="1" t="s">
         <v>559</v>
       </c>
@@ -8579,7 +8558,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3">
       <c r="A559" s="1" t="s">
         <v>560</v>
       </c>
@@ -8590,18 +8569,18 @@
         <v>617</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3">
       <c r="A560" s="1" t="s">
         <v>561</v>
       </c>
       <c r="B560" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C560" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3">
       <c r="A561" s="1" t="s">
         <v>562</v>
       </c>
@@ -8612,7 +8591,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3">
       <c r="A562" s="1" t="s">
         <v>563</v>
       </c>
@@ -8623,7 +8602,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3">
       <c r="A563" s="1" t="s">
         <v>564</v>
       </c>
@@ -8634,7 +8613,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3">
       <c r="A564" s="1" t="s">
         <v>565</v>
       </c>
@@ -8645,7 +8624,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3">
       <c r="A565" s="1" t="s">
         <v>566</v>
       </c>
@@ -8656,7 +8635,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3">
       <c r="A566" s="1" t="s">
         <v>567</v>
       </c>
@@ -8667,7 +8646,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3">
       <c r="A567" s="1" t="s">
         <v>568</v>
       </c>
@@ -8678,7 +8657,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3">
       <c r="A568" s="1" t="s">
         <v>569</v>
       </c>
@@ -8689,7 +8668,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3">
       <c r="A569" s="1" t="s">
         <v>570</v>
       </c>
@@ -8700,7 +8679,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3">
       <c r="A570" s="1" t="s">
         <v>571</v>
       </c>
@@ -8711,7 +8690,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3">
       <c r="A571" s="1" t="s">
         <v>572</v>
       </c>
@@ -8722,18 +8701,18 @@
         <v>626</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3">
       <c r="A572" s="1" t="s">
         <v>573</v>
       </c>
       <c r="B572" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C572" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3">
       <c r="A573" s="1" t="s">
         <v>574</v>
       </c>
@@ -8744,7 +8723,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3">
       <c r="A574" s="1" t="s">
         <v>575</v>
       </c>
@@ -8755,7 +8734,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3">
       <c r="A575" s="1" t="s">
         <v>576</v>
       </c>
@@ -8766,7 +8745,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3">
       <c r="A576" s="1" t="s">
         <v>577</v>
       </c>
@@ -8777,18 +8756,18 @@
         <v>621</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3">
       <c r="A577" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B577" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C577" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
       <c r="A578" s="1" t="s">
         <v>579</v>
       </c>
@@ -8799,7 +8778,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3">
       <c r="A579" s="1" t="s">
         <v>580</v>
       </c>
@@ -8810,7 +8789,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3">
       <c r="A580" s="1" t="s">
         <v>581</v>
       </c>
@@ -8821,7 +8800,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3">
       <c r="A581" s="1" t="s">
         <v>582</v>
       </c>
@@ -8832,7 +8811,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3">
       <c r="A582" s="1" t="s">
         <v>583</v>
       </c>
@@ -8843,7 +8822,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3">
       <c r="A583" s="1" t="s">
         <v>584</v>
       </c>
@@ -8854,7 +8833,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3">
       <c r="A584" s="1" t="s">
         <v>585</v>
       </c>
@@ -8865,7 +8844,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3">
       <c r="A585" s="1" t="s">
         <v>586</v>
       </c>
@@ -8876,18 +8855,18 @@
         <v>621</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3">
       <c r="A586" s="1" t="s">
         <v>587</v>
       </c>
       <c r="B586" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="C586" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
       <c r="A587" s="1" t="s">
         <v>588</v>
       </c>
@@ -8898,29 +8877,29 @@
         <v>622</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3">
       <c r="A588" s="1" t="s">
         <v>589</v>
       </c>
       <c r="B588" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C588" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
       <c r="A589" s="1" t="s">
         <v>590</v>
       </c>
       <c r="B589" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C589" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3">
       <c r="A590" s="1" t="s">
         <v>591</v>
       </c>
@@ -8931,7 +8910,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3">
       <c r="A591" s="1" t="s">
         <v>592</v>
       </c>
@@ -8942,7 +8921,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3">
       <c r="A592" s="1" t="s">
         <v>593</v>
       </c>
@@ -8953,7 +8932,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3">
       <c r="A593" s="1" t="s">
         <v>594</v>
       </c>
@@ -8964,7 +8943,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3">
       <c r="A594" s="1" t="s">
         <v>595</v>
       </c>
@@ -8975,7 +8954,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3">
       <c r="A595" s="1" t="s">
         <v>596</v>
       </c>
@@ -8986,7 +8965,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3">
       <c r="A596" s="1" t="s">
         <v>597</v>
       </c>
@@ -8997,7 +8976,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3">
       <c r="A597" s="1" t="s">
         <v>598</v>
       </c>
@@ -9008,7 +8987,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3">
       <c r="A598" s="1" t="s">
         <v>599</v>
       </c>
@@ -9019,7 +8998,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3">
       <c r="A599" s="1" t="s">
         <v>600</v>
       </c>
@@ -9030,7 +9009,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3">
       <c r="A600" s="1" t="s">
         <v>601</v>
       </c>
@@ -9041,7 +9020,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3">
       <c r="A601" s="1" t="s">
         <v>602</v>
       </c>
@@ -9052,7 +9031,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3">
       <c r="A602" s="1" t="s">
         <v>603</v>
       </c>
@@ -9063,7 +9042,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3">
       <c r="A603" s="1" t="s">
         <v>604</v>
       </c>
@@ -9074,7 +9053,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3">
       <c r="A604" s="1" t="s">
         <v>605</v>
       </c>
@@ -9085,7 +9064,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3">
       <c r="A605" s="1" t="s">
         <v>606</v>
       </c>
@@ -9096,7 +9075,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3">
       <c r="A606" s="1" t="s">
         <v>607</v>
       </c>
@@ -9107,7 +9086,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3">
       <c r="A607" s="1" t="s">
         <v>608</v>
       </c>
@@ -9118,7 +9097,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3">
       <c r="A608" s="1" t="s">
         <v>609</v>
       </c>
@@ -9129,7 +9108,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3">
       <c r="A609" s="1" t="s">
         <v>610</v>
       </c>
@@ -9140,7 +9119,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3">
       <c r="A610" s="1" t="s">
         <v>611</v>
       </c>
@@ -9151,7 +9130,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3">
       <c r="A611" s="1" t="s">
         <v>612</v>
       </c>
@@ -9162,7 +9141,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3">
       <c r="A612" s="1" t="s">
         <v>613</v>
       </c>
@@ -9173,7 +9152,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3">
       <c r="A613" s="1" t="s">
         <v>614</v>
       </c>
@@ -9184,7 +9163,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3">
       <c r="A614" s="1" t="s">
         <v>615</v>
       </c>
@@ -9195,7 +9174,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3">
       <c r="A615" s="1" t="s">
         <v>616</v>
       </c>
